--- a/Modelagens/Modelo físico.xlsx
+++ b/Modelagens/Modelo físico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMD\Documents\SpMedGroup\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A86F74-09C7-4D0C-9A33-81DC393F7007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A882E251-BED9-4A37-8F3B-3663C16A8961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66C69E8C-2A4B-4F0D-963C-2E17D5C523F6}"/>
+    <workbookView xWindow="3330" yWindow="3150" windowWidth="20325" windowHeight="8640" xr2:uid="{66C69E8C-2A4B-4F0D-963C-2E17D5C523F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
   <si>
     <t>tipoUsuario</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>Comum</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -376,6 +373,42 @@
   </si>
   <si>
     <t>Paciente falou que pode faltar</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>11 3456-7654</t>
+  </si>
+  <si>
+    <t>11 98765-6543</t>
+  </si>
+  <si>
+    <t>11 97208-4453</t>
+  </si>
+  <si>
+    <t>11 3456-6543</t>
+  </si>
+  <si>
+    <t>11 7656-6377</t>
+  </si>
+  <si>
+    <t>11 95436-8769</t>
+  </si>
+  <si>
+    <t>NULO</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
+    <t>saulo@gmail.com</t>
+  </si>
+  <si>
+    <t>C# melhor que python</t>
   </si>
 </sst>
 </file>
@@ -545,83 +578,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -633,13 +666,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FF8EA9DB"/>
+      <color rgb="FFFFF2CC"/>
       <color rgb="FFFFD966"/>
       <color rgb="FFA9D08E"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FFFFF2CC"/>
-      <color rgb="FF8EA9DB"/>
       <color rgb="FF9966FF"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FFCC9900"/>
       <color rgb="FF996633"/>
       <color rgb="FF9933FF"/>
@@ -955,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E852CB0-4175-4760-AF68-CB9F4BDA31A1}">
   <dimension ref="A1:BG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,70 +998,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="T1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="T1" s="20" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="T2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="25"/>
-      <c r="T2" s="21" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -1040,42 +1075,43 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="G3" s="7">
+      <c r="D3" s="12"/>
+      <c r="G3" s="24">
         <v>1</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="16">
+      <c r="H3" s="24"/>
+      <c r="I3" s="12">
         <v>2</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="25">
+      <c r="J3" s="12"/>
+      <c r="K3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="9">
         <v>123</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="T3" s="21">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="T3" s="14">
         <v>1</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
@@ -1087,42 +1123,43 @@
       <c r="AH3" s="3"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="G4" s="7">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="G4" s="24">
         <v>2</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="16">
+      <c r="H4" s="24"/>
+      <c r="I4" s="12">
         <v>2</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25">
+      <c r="J4" s="12"/>
+      <c r="K4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9">
         <v>1234</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="T4" s="21">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="T4" s="14">
         <v>2</v>
       </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1134,34 +1171,43 @@
       <c r="AH4" s="3"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="G5" s="25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="16">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="G5" s="9">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12">
         <v>2</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25">
+      <c r="J5" s="12"/>
+      <c r="K5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
         <v>12345</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="T5" s="21">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="T5" s="14">
         <v>3</v>
       </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1178,36 +1224,36 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="25">
+      <c r="G6" s="9">
         <v>4</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="16">
+      <c r="H6" s="9"/>
+      <c r="I6" s="12">
         <v>2</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25">
+      <c r="J6" s="12"/>
+      <c r="K6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9">
         <v>123456</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="21">
+      <c r="T6" s="14">
         <v>4</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -1219,43 +1265,43 @@
       <c r="AH6" s="3"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="25">
+      <c r="G7" s="9">
         <v>5</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="16">
+      <c r="H7" s="9"/>
+      <c r="I7" s="12">
         <v>2</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25">
+      <c r="J7" s="12"/>
+      <c r="K7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
         <v>1234567</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="21">
+      <c r="T7" s="14">
         <v>5</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1267,169 +1313,171 @@
       <c r="AH7" s="3"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="25">
+      <c r="G8" s="9">
         <v>6</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="16">
+      <c r="H8" s="9"/>
+      <c r="I8" s="12">
         <v>2</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25">
+      <c r="J8" s="12"/>
+      <c r="K8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
         <v>12345678</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="21">
+      <c r="T8" s="14">
         <v>6</v>
       </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="25">
+      <c r="G9" s="9">
         <v>7</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="16">
+      <c r="H9" s="9"/>
+      <c r="I9" s="12">
         <v>2</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="2"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="21">
+      <c r="T9" s="14">
         <v>7</v>
       </c>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="9">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12">
+        <v>2</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="T10" s="14">
+        <v>8</v>
+      </c>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="25">
-        <v>8</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="16">
-        <v>2</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="25"/>
-      <c r="T10" s="21">
-        <v>8</v>
-      </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="25">
+      <c r="G11" s="9">
         <v>9</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="16">
+      <c r="H11" s="9"/>
+      <c r="I11" s="12">
         <v>2</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="T11" s="14">
         <v>9</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="T11" s="21">
-        <v>9</v>
-      </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1438,34 +1486,35 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="25">
+      <c r="G12" s="9">
         <v>10</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="16">
+      <c r="H12" s="9"/>
+      <c r="I12" s="12">
         <v>2</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="25"/>
-      <c r="T12" s="21">
+      <c r="J12" s="12"/>
+      <c r="K12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="T12" s="14">
         <v>10</v>
       </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1474,19 +1523,35 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="T13" s="21">
+      <c r="G13" s="9">
         <v>11</v>
       </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="T13" s="14">
+        <v>11</v>
+      </c>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -1532,15 +1597,15 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
-      <c r="T14" s="21">
+      <c r="T14" s="14">
         <v>12</v>
       </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
@@ -1576,35 +1641,35 @@
       <c r="BG14" s="3"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="T15" s="21">
+      <c r="A15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="T15" s="14">
         <v>13</v>
       </c>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
@@ -1640,48 +1705,48 @@
       <c r="BG15" s="3"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="14">
         <v>14</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="21">
-        <v>14</v>
-      </c>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -1719,48 +1784,48 @@
       <c r="BG16" s="3"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="13">
         <v>1</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="26">
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="19">
         <v>0.29166666666666669</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="26">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="19">
         <v>0.95833333333333337</v>
       </c>
-      <c r="R17" s="10"/>
+      <c r="R17" s="13"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="21">
+      <c r="T17" s="14">
         <v>15</v>
       </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -1798,48 +1863,48 @@
       <c r="BG17" s="3"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <v>2</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="26">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="19">
         <v>0.33333333333333331</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="26">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="19">
         <v>0.91666666666666663</v>
       </c>
-      <c r="R18" s="10"/>
+      <c r="R18" s="13"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="21">
+      <c r="T18" s="14">
         <v>16</v>
       </c>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -1868,7 +1933,7 @@
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
-      <c r="BA18" s="27"/>
+      <c r="BA18" s="6"/>
       <c r="BB18" s="2"/>
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
@@ -1889,15 +1954,15 @@
       <c r="J19" s="3"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="21">
+      <c r="T19" s="14">
         <v>17</v>
       </c>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -1926,7 +1991,7 @@
       <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
-      <c r="BA19" s="27"/>
+      <c r="BA19" s="6"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
@@ -2040,29 +2105,30 @@
       <c r="BG21" s="3"/>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="2"/>
+      <c r="A22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -2098,41 +2164,44 @@
       <c r="BG22" s="3"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="4" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="2"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="V23" s="10"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="2"/>
@@ -2168,41 +2237,44 @@
       <c r="BG23" s="3"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <v>1</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9">
         <v>4</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10">
+        <v>94839859000</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9">
-        <v>94839859000</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="2"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24" s="10"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="2"/>
@@ -2238,41 +2310,44 @@
       <c r="BG24" s="3"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>2</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9">
         <v>5</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10">
+        <v>73556944057</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9">
-        <v>73556944057</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="T25" s="9"/>
-      <c r="U25" s="2"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="V25" s="10"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -2308,42 +2383,44 @@
       <c r="BG25" s="3"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <v>3</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9">
         <v>6</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10">
+        <v>16839338002</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
-        <v>16839338002</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="29">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="20">
         <v>28773</v>
       </c>
-      <c r="T26" s="29"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="V26" s="10"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -2382,42 +2459,44 @@
       <c r="BG26" s="3"/>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>4</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9">
         <v>7</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10">
+        <v>14332654765</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9">
-        <v>14332654765</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T27" s="9"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="V27" s="10"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -2456,42 +2535,44 @@
       <c r="BG27" s="3"/>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <v>5</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9">
         <v>8</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10">
+        <v>91305348010</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9">
-        <v>91305348010</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="V28" s="10"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -2530,42 +2611,44 @@
       <c r="BG28" s="3"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>6</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9">
         <v>9</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10">
+        <v>79799299004</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9">
-        <v>79799299004</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="T29" s="9"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="V29" s="10"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -2604,40 +2687,44 @@
       <c r="BG29" s="3"/>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>7</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9">
         <v>10</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10">
+        <v>13771913039</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9">
-        <v>13771913039</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="29">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="20">
         <v>43223</v>
       </c>
-      <c r="T30" s="29"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="V30" s="10"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -2733,26 +2820,26 @@
       <c r="AY32" s="2"/>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="A33" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="23"/>
+      <c r="W33" s="5"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
@@ -2780,38 +2867,38 @@
       <c r="AY33" s="2"/>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="30" t="s">
+      <c r="J34" s="18"/>
+      <c r="K34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="L34" s="30"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
       <c r="Z34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
@@ -2837,36 +2924,36 @@
       <c r="AY34" s="2"/>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="18">
         <v>1</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="16">
+      <c r="B35" s="18"/>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14">
         <v>2</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="21">
-        <v>2</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30" t="s">
+      <c r="H35" s="14"/>
+      <c r="I35" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L35" s="30"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="18"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="23"/>
+      <c r="W35" s="5"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
@@ -2894,36 +2981,36 @@
       <c r="AY35" s="2"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="18">
         <v>2</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="16">
+      <c r="B36" s="18"/>
+      <c r="C36" s="9">
         <v>2</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="10">
+      <c r="D36" s="9"/>
+      <c r="E36" s="13">
         <v>1</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="21">
+      <c r="F36" s="13"/>
+      <c r="G36" s="14">
         <v>17</v>
       </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30" t="s">
+      <c r="H36" s="14"/>
+      <c r="I36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="30"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="18"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="23"/>
+      <c r="W36" s="5"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
@@ -2951,36 +3038,36 @@
       <c r="AY36" s="2"/>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="18">
         <v>3</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="16">
-        <v>2</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="10">
+      <c r="B37" s="18"/>
+      <c r="C37" s="9">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="13">
         <v>1</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="21">
+      <c r="F37" s="13"/>
+      <c r="G37" s="14">
         <v>16</v>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="30"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="18"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="23"/>
+      <c r="W37" s="5"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
@@ -3008,16 +3095,16 @@
       <c r="AY37" s="2"/>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C38" s="22"/>
+      <c r="C38" s="4"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
       <c r="Z38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
@@ -3077,21 +3164,21 @@
       <c r="AY39" s="2"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="A40" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -3121,31 +3208,31 @@
       <c r="AY40" s="2"/>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="31" t="s">
+      <c r="A41" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="M41" s="31"/>
+      <c r="M41" s="17"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -3175,31 +3262,31 @@
       <c r="AY41" s="2"/>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A42" s="31">
+      <c r="A42" s="17">
         <v>1</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="9">
+      <c r="B42" s="17"/>
+      <c r="C42" s="10">
         <v>7</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="30">
+      <c r="D42" s="10"/>
+      <c r="E42" s="18">
         <v>3</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="8">
+      <c r="F42" s="18"/>
+      <c r="G42" s="15">
         <v>1</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31" t="s">
+      <c r="H42" s="15"/>
+      <c r="I42" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="M42" s="31"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M42" s="17"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -3229,31 +3316,31 @@
       <c r="AY42" s="2"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A43" s="31">
+      <c r="A43" s="17">
         <v>2</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="9">
+      <c r="B43" s="17"/>
+      <c r="C43" s="10">
         <v>2</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="30">
+      <c r="D43" s="10"/>
+      <c r="E43" s="18">
         <v>2</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="8">
+      <c r="F43" s="18"/>
+      <c r="G43" s="15">
         <v>2</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="32">
+      <c r="H43" s="15"/>
+      <c r="I43" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="30">
         <v>43983.416666666664</v>
       </c>
-      <c r="M43" s="32"/>
+      <c r="M43" s="30"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -3283,31 +3370,31 @@
       <c r="AY43" s="2"/>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A44" s="31">
+      <c r="A44" s="17">
         <v>3</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="9">
+      <c r="B44" s="17"/>
+      <c r="C44" s="10">
         <v>3</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="30">
+      <c r="D44" s="10"/>
+      <c r="E44" s="18">
         <v>2</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="8">
+      <c r="F44" s="18"/>
+      <c r="G44" s="15">
         <v>1</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="32">
+      <c r="H44" s="15"/>
+      <c r="I44" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="30">
         <v>44014.458333333336</v>
       </c>
-      <c r="M44" s="32"/>
+      <c r="M44" s="30"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="V44" s="2"/>
@@ -3339,31 +3426,31 @@
       <c r="AY44" s="2"/>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
+      <c r="A45" s="17">
         <v>4</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="9">
+      <c r="B45" s="17"/>
+      <c r="C45" s="10">
         <v>2</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="30">
+      <c r="D45" s="10"/>
+      <c r="E45" s="18">
         <v>2</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="8">
+      <c r="F45" s="18"/>
+      <c r="G45" s="15">
         <v>1</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="32">
+      <c r="H45" s="15"/>
+      <c r="I45" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="30">
         <v>43253.416666666664</v>
       </c>
-      <c r="M45" s="32"/>
+      <c r="M45" s="30"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="V45" s="2"/>
@@ -3395,31 +3482,31 @@
       <c r="AY45" s="2"/>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+      <c r="A46" s="17">
         <v>5</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="9">
+      <c r="B46" s="17"/>
+      <c r="C46" s="10">
         <v>4</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="30">
+      <c r="D46" s="10"/>
+      <c r="E46" s="18">
         <v>1</v>
       </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="8">
+      <c r="F46" s="18"/>
+      <c r="G46" s="15">
         <v>2</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32">
+      <c r="H46" s="15"/>
+      <c r="I46" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30">
         <v>43648.458333333336</v>
       </c>
-      <c r="M46" s="32"/>
+      <c r="M46" s="30"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="V46" s="2"/>
@@ -3451,31 +3538,31 @@
       <c r="AY46" s="2"/>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+      <c r="A47" s="17">
         <v>6</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="9">
+      <c r="B47" s="17"/>
+      <c r="C47" s="10">
         <v>7</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="30">
+      <c r="D47" s="10"/>
+      <c r="E47" s="18">
         <v>3</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="8">
+      <c r="F47" s="18"/>
+      <c r="G47" s="15">
         <v>3</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32">
+      <c r="H47" s="15"/>
+      <c r="I47" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30">
         <v>44046.625</v>
       </c>
-      <c r="M47" s="32"/>
+      <c r="M47" s="30"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="V47" s="2"/>
@@ -3507,31 +3594,31 @@
       <c r="AY47" s="2"/>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A48" s="31">
+      <c r="A48" s="17">
         <v>7</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="9">
+      <c r="B48" s="17"/>
+      <c r="C48" s="10">
         <v>4</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="30">
+      <c r="D48" s="10"/>
+      <c r="E48" s="18">
         <v>1</v>
       </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="8">
+      <c r="F48" s="18"/>
+      <c r="G48" s="15">
         <v>3</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32">
+      <c r="H48" s="15"/>
+      <c r="I48" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="30">
         <v>44077.458333333336</v>
       </c>
-      <c r="M48" s="32"/>
+      <c r="M48" s="30"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -3586,7 +3673,7 @@
       <c r="D55" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="251">
+  <mergeCells count="265">
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="I48:K48"/>
     <mergeCell ref="A48:B48"/>
@@ -3596,6 +3683,18 @@
     <mergeCell ref="I45:K45"/>
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="L44:M44"/>
@@ -3635,19 +3734,6 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A33:L33"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
@@ -3657,9 +3743,22 @@
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="K25:R25"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A33:L33"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
@@ -3671,21 +3770,22 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:X10"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="T15:U15"/>
@@ -3697,24 +3797,6 @@
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
@@ -3724,65 +3806,45 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="V17:X17"/>
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="V19:X19"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="S26:T26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="A22:V22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -3790,18 +3852,8 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -3815,10 +3867,20 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
     <mergeCell ref="A15:R15"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A16:B16"/>
@@ -3826,10 +3888,26 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:N16"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -3837,7 +3915,30 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
